--- a/학습자료/단답형/오답노트/오답노트_테스트_객관식_조선.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_테스트_객관식_조선.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,39 @@
           <t>1728 : 영조</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20221222</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>경재소 제도화</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1435 : 세종</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
         </is>
       </c>
     </row>
